--- a/assets/development/HotKeyMetaData.xlsx
+++ b/assets/development/HotKeyMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVELOPMENT\EldenRingAHK\assets\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6A9900-6C01-4CD1-8DE2-F7EE1255559C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F74D63-564E-4E73-8901-37939B372B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-2730" windowWidth="21840" windowHeight="38640" xr2:uid="{D9089542-4433-4189-8D6D-FFA81423FBCF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{D9089542-4433-4189-8D6D-FFA81423FBCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,14 +58,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="221">
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -637,6 +634,93 @@
   </si>
   <si>
     <t xml:space="preserve">S_gesture_6 </t>
+  </si>
+  <si>
+    <t>V_USESPELLSLOT1</t>
+  </si>
+  <si>
+    <t>V_USES_SpellSlot2</t>
+  </si>
+  <si>
+    <t>V_USES_SpellSlot3</t>
+  </si>
+  <si>
+    <t>V_USES_SpellSlot4</t>
+  </si>
+  <si>
+    <t>V_USES_SpellSlot5</t>
+  </si>
+  <si>
+    <t>V_USES_SpellSlot6</t>
+  </si>
+  <si>
+    <t>V_USES_SpellSlot7</t>
+  </si>
+  <si>
+    <t>V_USES_SpellSlot8</t>
+  </si>
+  <si>
+    <t>V_USES_SpellSlot9</t>
+  </si>
+  <si>
+    <t>V_USES_SpellSlot10</t>
+  </si>
+  <si>
+    <t>V_SWITCHSPELLSLOT1</t>
+  </si>
+  <si>
+    <t>V_SWITCHS_SpellSlot2</t>
+  </si>
+  <si>
+    <t>V_SWITCHS_SpellSlot3</t>
+  </si>
+  <si>
+    <t>V_SWITCHS_SpellSlot4</t>
+  </si>
+  <si>
+    <t>V_SWITCHS_SpellSlot5</t>
+  </si>
+  <si>
+    <t>V_SWITCHS_SpellSlot6</t>
+  </si>
+  <si>
+    <t>V_SWITCHS_SpellSlot7</t>
+  </si>
+  <si>
+    <t>V_SWITCHS_SpellSlot8</t>
+  </si>
+  <si>
+    <t>V_SWITCHS_SpellSlot9</t>
+  </si>
+  <si>
+    <t>V_SWITCHS_SpellSlot10</t>
+  </si>
+  <si>
+    <t>S_SpellSlot10</t>
+  </si>
+  <si>
+    <t>GAME</t>
+  </si>
+  <si>
+    <t>POUCH</t>
+  </si>
+  <si>
+    <t>COMBOS</t>
+  </si>
+  <si>
+    <t>SPELL</t>
+  </si>
+  <si>
+    <t>BELT</t>
+  </si>
+  <si>
+    <t>GESTURES</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>func</t>
   </si>
 </sst>
 </file>
@@ -989,809 +1073,1914 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCE2113-DB98-4723-B2AB-4D00D0EAF2E4}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
     <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="e" cm="1">
+        <f t="array" ref="A12">+z</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="e" cm="1">
+        <f t="array" ref="A13">+x</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="e" cm="1">
-        <f t="array" ref="B12">+z</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="e" cm="1">
-        <f t="array" ref="B13">+x</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>48</v>
       </c>
       <c r="B24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="e" cm="1">
+        <f t="array" ref="A27">+v</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="F32">
+        <v>350</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="e" cm="1">
+        <f t="array" ref="A33">+a</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D33" t="s">
+        <v>220</v>
+      </c>
+      <c r="E33" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="F33">
+        <v>500</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="e" cm="1">
+        <f t="array" ref="A34">+s</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="e" cm="1">
-        <f t="array" ref="B27">+a</f>
+      <c r="D34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34">
+        <v>500</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="e" cm="1">
+        <f t="array" ref="A35">+d</f>
         <v>#NAME?</v>
       </c>
-      <c r="C27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="e" cm="1">
-        <f t="array" ref="B28">+s</f>
+      <c r="D35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35">
+        <v>500</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="e" cm="1">
+        <f t="array" ref="A36">+f</f>
         <v>#NAME?</v>
       </c>
-      <c r="C28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="e" cm="1">
-        <f t="array" ref="B29">+d</f>
+      <c r="D36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36">
+        <v>500</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="e" cm="1">
+        <f t="array" ref="A37">+e</f>
         <v>#NAME?</v>
       </c>
-      <c r="C29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="e" cm="1">
-        <f t="array" ref="B30">+f</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D37" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="F37">
+        <v>500</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="e" cm="1">
-        <f t="array" ref="B31">+e</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="F38">
+        <v>500</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>59</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="F39">
+        <v>500</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" t="s">
         <v>60</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D40" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="F40">
+        <v>500</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" t="s">
         <v>62</v>
       </c>
-      <c r="C34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41">
+        <v>500</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" t="s">
         <v>64</v>
       </c>
-      <c r="C35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" t="e" cm="1">
-        <f t="array" ref="B39">+v</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43">
+        <v>500</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44">
+        <v>500</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45">
+        <v>500</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="D46" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46">
+        <v>500</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="D47" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47">
+        <v>500</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="D48" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" t="s">
+        <v>168</v>
+      </c>
+      <c r="F48">
+        <v>500</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49">
+        <v>500</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="D50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E50" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50">
+        <v>500</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="D51" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51">
+        <v>500</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52">
+        <v>500</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
         <f>+Sheet2!F1</f>
         <v>0</v>
       </c>
+      <c r="B53" t="s">
+        <v>217</v>
+      </c>
       <c r="C53" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F53">
+        <v>200</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
         <f>+Sheet2!F2</f>
         <v>0</v>
       </c>
+      <c r="B54" t="s">
+        <v>217</v>
+      </c>
       <c r="C54" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55">
+        <v>96</v>
+      </c>
+      <c r="D54" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54">
+        <v>200</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
         <f>+Sheet2!F3</f>
         <v>0</v>
       </c>
+      <c r="B55" t="s">
+        <v>217</v>
+      </c>
       <c r="C55" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56">
+        <v>97</v>
+      </c>
+      <c r="D55" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55">
+        <v>200</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
         <f>+Sheet2!F4</f>
         <v>0</v>
       </c>
+      <c r="B56" t="s">
+        <v>217</v>
+      </c>
       <c r="C56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57">
+        <v>98</v>
+      </c>
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F56">
+        <v>200</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
         <f>+Sheet2!F5</f>
         <v>0</v>
       </c>
+      <c r="B57" t="s">
+        <v>217</v>
+      </c>
       <c r="C57" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58">
+        <v>99</v>
+      </c>
+      <c r="D57" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57">
+        <v>200</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
         <f>+Sheet2!F6</f>
         <v>0</v>
       </c>
+      <c r="B58" t="s">
+        <v>217</v>
+      </c>
       <c r="C58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59">
+        <v>100</v>
+      </c>
+      <c r="D58" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58">
+        <v>200</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
         <f>+Sheet2!F7</f>
         <v>0</v>
       </c>
+      <c r="B59" t="s">
+        <v>217</v>
+      </c>
       <c r="C59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60">
+        <v>101</v>
+      </c>
+      <c r="D59" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59">
+        <v>200</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
         <f>+Sheet2!F8</f>
         <v>0</v>
       </c>
+      <c r="B60" t="s">
+        <v>217</v>
+      </c>
       <c r="C60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61">
+        <v>102</v>
+      </c>
+      <c r="D60" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" t="s">
+        <v>183</v>
+      </c>
+      <c r="F60">
+        <v>200</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
         <f>+Sheet2!F9</f>
         <v>0</v>
       </c>
+      <c r="B61" t="s">
+        <v>217</v>
+      </c>
       <c r="C61" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62">
+        <v>103</v>
+      </c>
+      <c r="D61" t="s">
+        <v>220</v>
+      </c>
+      <c r="E61" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61">
+        <v>200</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
         <f>+Sheet2!F10</f>
         <v>0</v>
       </c>
+      <c r="B62" t="s">
+        <v>217</v>
+      </c>
       <c r="C62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="D62" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62">
+        <v>200</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="D63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" t="s">
+        <v>186</v>
+      </c>
+      <c r="F63">
+        <v>1000</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>110</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="D64" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64">
+        <v>1000</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+      <c r="D65" t="s">
+        <v>220</v>
+      </c>
+      <c r="E65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65">
+        <v>1000</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="D66" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66">
+        <v>1000</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>218</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="D67" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67">
+        <v>1000</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+      <c r="D68" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" t="s">
+        <v>191</v>
+      </c>
+      <c r="F68">
+        <v>1000</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>216</v>
+      </c>
       <c r="C69" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="D69" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69">
+        <v>500</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
       <c r="C70" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+      <c r="D70" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" t="s">
+        <v>140</v>
+      </c>
+      <c r="F70">
+        <v>500</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>216</v>
+      </c>
       <c r="C71" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="D71" t="s">
+        <v>220</v>
+      </c>
+      <c r="E71" t="s">
+        <v>141</v>
+      </c>
+      <c r="F71">
+        <v>500</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>216</v>
+      </c>
       <c r="C72" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+      <c r="D72" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72">
+        <v>500</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>216</v>
+      </c>
       <c r="C73" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="D73" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73">
+        <v>500</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>216</v>
+      </c>
       <c r="C74" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+      <c r="D74" t="s">
+        <v>220</v>
+      </c>
+      <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74">
+        <v>500</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>216</v>
+      </c>
       <c r="C75" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+      <c r="D75" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" t="s">
+        <v>145</v>
+      </c>
+      <c r="F75">
+        <v>500</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>216</v>
+      </c>
       <c r="C76" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+      <c r="D76" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76">
+        <v>500</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>216</v>
+      </c>
       <c r="C77" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="D77" t="s">
+        <v>220</v>
+      </c>
+      <c r="E77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77">
+        <v>500</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>216</v>
+      </c>
       <c r="C78" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+      <c r="D78" t="s">
+        <v>220</v>
+      </c>
+      <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78">
+        <v>500</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>216</v>
+      </c>
       <c r="C79" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+      <c r="D79" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" t="s">
+        <v>149</v>
+      </c>
+      <c r="F79">
+        <v>500</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>216</v>
+      </c>
       <c r="C80" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+      <c r="D80" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80">
+        <v>200</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>216</v>
+      </c>
       <c r="C81" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="D81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" t="s">
+        <v>151</v>
+      </c>
+      <c r="F81">
+        <v>200</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>216</v>
+      </c>
       <c r="C82" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+      <c r="D82" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82">
+        <v>200</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>216</v>
+      </c>
       <c r="C83" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+      <c r="D83" t="s">
+        <v>220</v>
+      </c>
+      <c r="E83" t="s">
+        <v>153</v>
+      </c>
+      <c r="F83">
+        <v>200</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>216</v>
+      </c>
       <c r="C84" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+      <c r="D84" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84">
+        <v>200</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>216</v>
+      </c>
       <c r="C85" t="s">
-        <v>192</v>
+        <v>208</v>
+      </c>
+      <c r="D85" t="s">
+        <v>220</v>
+      </c>
+      <c r="E85" t="s">
+        <v>155</v>
+      </c>
+      <c r="F85">
+        <v>200</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" t="s">
+        <v>220</v>
+      </c>
+      <c r="E86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86">
+        <v>200</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" t="s">
+        <v>210</v>
+      </c>
+      <c r="D87" t="s">
+        <v>220</v>
+      </c>
+      <c r="E87" t="s">
+        <v>157</v>
+      </c>
+      <c r="F87">
+        <v>200</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>216</v>
+      </c>
+      <c r="C88" t="s">
+        <v>211</v>
+      </c>
+      <c r="D88" t="s">
+        <v>220</v>
+      </c>
+      <c r="E88" t="s">
+        <v>212</v>
+      </c>
+      <c r="F88">
+        <v>200</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D89" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89" t="s">
+        <v>134</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D90" t="s">
+        <v>220</v>
+      </c>
+      <c r="E90" t="s">
+        <v>136</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D91" t="s">
+        <v>220</v>
+      </c>
+      <c r="E91" t="s">
+        <v>138</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1815,18 +3004,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1835,7 +3024,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1844,7 +3033,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1853,7 +3042,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1862,7 +3051,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1871,31 +3060,31 @@
         <v>#NAME?</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1904,47 +3093,47 @@
         <v>#NAME?</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" t="s">
         <v>132</v>
-      </c>
-      <c r="B13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" t="s">
         <v>134</v>
-      </c>
-      <c r="B14" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
         <v>136</v>
-      </c>
-      <c r="B15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
         <v>138</v>
-      </c>
-      <c r="B16" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1952,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1960,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1968,7 +3157,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1976,7 +3165,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1984,7 +3173,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1992,7 +3181,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -2000,7 +3189,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -2008,7 +3197,7 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -2016,7 +3205,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -2024,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -2032,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -2040,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -2048,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -2056,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -2064,7 +3253,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -2072,7 +3261,7 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -2080,7 +3269,7 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -2088,7 +3277,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -2096,87 +3285,87 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s">
         <v>160</v>
-      </c>
-      <c r="B37" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s">
         <v>162</v>
-      </c>
-      <c r="B38" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" t="s">
         <v>164</v>
-      </c>
-      <c r="B39" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
         <v>166</v>
-      </c>
-      <c r="B40" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
         <v>168</v>
-      </c>
-      <c r="B41" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" t="s">
         <v>170</v>
-      </c>
-      <c r="B42" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" t="s">
         <v>172</v>
-      </c>
-      <c r="B43" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
         <v>174</v>
-      </c>
-      <c r="B44" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -2185,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -2194,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -2203,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -2212,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -2221,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -2230,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -2239,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -2248,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -2257,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -2266,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -2275,7 +3464,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -2284,7 +3473,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -2293,7 +3482,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -2302,7 +3491,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -2311,7 +3500,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -2320,7 +3509,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
